--- a/src/main/resources/exceldocs/Vulnerabilities.xlsx
+++ b/src/main/resources/exceldocs/Vulnerabilities.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ServerMapping" sheetId="1" r:id="rId1"/>
     <sheet name="VulnerabilityFeatures" sheetId="2" r:id="rId2"/>
+    <sheet name="Tarun" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>ServiceName</t>
   </si>
@@ -122,8 +123,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,11 +135,13 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +474,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -604,7 +609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -639,4 +644,134 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/src/main/resources/exceldocs/Vulnerabilities.xlsx
+++ b/src/main/resources/exceldocs/Vulnerabilities.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ServerMapping" sheetId="1" r:id="rId1"/>
-    <sheet name="VulnerabilityFeatures" sheetId="2" r:id="rId2"/>
-    <sheet name="Tarun" sheetId="3" r:id="rId3"/>
+    <sheet name="Tarun" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>ServiceName</t>
   </si>
@@ -69,9 +67,6 @@
   </si>
   <si>
     <t>sim4</t>
-  </si>
-  <si>
-    <t>VulnerabilityNumber</t>
   </si>
   <si>
     <t>FeatureNumber</t>
@@ -123,8 +118,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -135,13 +134,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,20 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +498,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -539,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -550,7 +557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -561,7 +568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -572,7 +579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -583,7 +590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -603,175 +610,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/src/main/resources/exceldocs/Vulnerabilities.xlsx
+++ b/src/main/resources/exceldocs/Vulnerabilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>ServiceName</t>
   </si>
@@ -36,40 +36,46 @@
     <t>Siddhanth</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>Ashish</t>
-  </si>
-  <si>
     <t>cjb0</t>
   </si>
   <si>
-    <t>cjb1</t>
-  </si>
-  <si>
     <t>cjb2</t>
   </si>
   <si>
     <t>cjb3</t>
   </si>
   <si>
-    <t>sim0</t>
-  </si>
-  <si>
-    <t>sim1</t>
-  </si>
-  <si>
-    <t>sim2</t>
-  </si>
-  <si>
-    <t>sim3</t>
-  </si>
-  <si>
-    <t>sim4</t>
-  </si>
-  <si>
     <t>FeatureNumber</t>
+  </si>
+  <si>
+    <t>VulnerabilityID</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>Siddhanath</t>
+  </si>
+  <si>
+    <t>esb0</t>
+  </si>
+  <si>
+    <t>esb1</t>
+  </si>
+  <si>
+    <t>esb2</t>
+  </si>
+  <si>
+    <t>esb3</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F11</t>
   </si>
 </sst>
 </file>
@@ -474,21 +480,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="3" max="5" width="23.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,10 +505,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -510,10 +522,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -521,10 +542,16 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,10 +559,16 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -543,62 +576,101 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/exceldocs/Vulnerabilities.xlsx
+++ b/src/main/resources/exceldocs/Vulnerabilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>ServiceName</t>
   </si>
@@ -27,9 +27,6 @@
     <t>ServiceOwner</t>
   </si>
   <si>
-    <t>ServerName</t>
-  </si>
-  <si>
     <t>MFAP</t>
   </si>
   <si>
@@ -45,13 +42,7 @@
     <t>cjb3</t>
   </si>
   <si>
-    <t>FeatureNumber</t>
-  </si>
-  <si>
-    <t>VulnerabilityID</t>
-  </si>
-  <si>
-    <t>Vulnerability</t>
+    <t>VulnerabilityId</t>
   </si>
   <si>
     <t>ESB</t>
@@ -76,6 +67,60 @@
   </si>
   <si>
     <t>F11</t>
+  </si>
+  <si>
+    <t>ScanId</t>
+  </si>
+  <si>
+    <t>FeatureId</t>
+  </si>
+  <si>
+    <t>ServerId</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
   </si>
 </sst>
 </file>
@@ -124,8 +169,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -140,17 +193,25 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,194 +544,217 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
-    <col min="3" max="5" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+      <c r="F4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
+      <c r="F5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/exceldocs/Vulnerabilities.xlsx
+++ b/src/main/resources/exceldocs/Vulnerabilities.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tarun" sheetId="3" r:id="rId1"/>
+    <sheet name="Vulnerability" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
